--- a/doc/traning12/勝ち負け判定.xlsx
+++ b/doc/traning12/勝ち負け判定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\竹田彩乃\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384C082-38D9-4E7C-B142-3A1A2CDF3F8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE71B0A6-2964-4B12-B303-2FC56162F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6740" xr2:uid="{6791AED2-1563-40C5-BC7D-FC581B3484D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6791AED2-1563-40C5-BC7D-FC581B3484D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -90,6 +100,126 @@
     <rPh sb="4" eb="5">
       <t>ウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー－A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーAー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーBB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aーー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー－B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーBー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bーー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーBA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +254,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +310,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDA278C-17C5-4FBD-AF48-BF5FDF78CFB4}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -509,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -526,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -542,8 +696,20 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -559,8 +725,20 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -576,8 +754,20 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -593,8 +783,14 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -610,8 +806,14 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -627,18 +829,853 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="K18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="K20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="K21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="K22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="K23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="K24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49" s="3">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50" s="3">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B53" s="3">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="3">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B55" s="3">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="3">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B58" s="3">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B59" s="3">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="3">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="3">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="3">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="3">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B64" s="3">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="3">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="3">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="3">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="3">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="3">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="3">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71" s="3">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="3">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="3">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="3">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75" s="3">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="3">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77" s="3">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="3">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79" s="3">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="3">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B81" s="3">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B82" s="3">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B83" s="3">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/traning12/勝ち負け判定.xlsx
+++ b/doc/traning12/勝ち負け判定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\traning_main\traning-takeda\doc\traning12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktraning\traning-takeda\doc\traning12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0EBED-3922-42F1-A796-CF04679CDE9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09036E1-9F24-4BC6-9D51-11FE353150A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890" xr2:uid="{6791AED2-1563-40C5-BC7D-FC581B3484D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6791AED2-1563-40C5-BC7D-FC581B3484D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -192,6 +192,26 @@
   </si>
   <si>
     <t>Aが勝ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bが勝ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※必要のないものをグレーに、引き分けを黄色でマークしました。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キイロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -216,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +261,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -274,13 +306,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,11 +360,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEAAAA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEAAAA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEAAAA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEAAAA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -633,13 +718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDA278C-17C5-4FBD-AF48-BF5FDF78CFB4}">
   <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -656,39 +741,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="3">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G4" s="13"/>
       <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
@@ -702,22 +789,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,22 +819,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G6" s="13"/>
       <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
@@ -760,21 +849,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>9</v>
@@ -783,21 +872,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>10</v>
@@ -806,15 +895,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -829,21 +918,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>11</v>
@@ -852,22 +941,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="13"/>
       <c r="K11" s="5" t="s">
         <v>12</v>
       </c>
@@ -881,15 +971,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
@@ -897,6 +987,7 @@
       <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G12" s="13"/>
       <c r="K12" s="5" t="s">
         <v>13</v>
       </c>
@@ -910,15 +1001,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
@@ -939,21 +1030,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>15</v>
@@ -962,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -972,7 +1063,7 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -985,17 +1076,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1008,17 +1099,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1031,21 +1122,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>18</v>
@@ -1054,18 +1145,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>36</v>
@@ -1077,20 +1168,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1100,21 +1191,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>31</v>
@@ -1123,21 +1214,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>32</v>
@@ -1146,21 +1237,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>35</v>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>33</v>
@@ -1169,20 +1260,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -1192,463 +1283,465 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -1656,7 +1749,11 @@
       <c r="F83" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F83" xr:uid="{1AF30F01-8703-4DB0-9FB3-1100A9548AE0}"/>
+  <autoFilter ref="B2:F83" xr:uid="{1AF30F01-8703-4DB0-9FB3-1100A9548AE0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F83">
+      <sortCondition ref="F2:F83"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/traning12/勝ち負け判定.xlsx
+++ b/doc/traning12/勝ち負け判定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktraning\traning-takeda\doc\traning12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09036E1-9F24-4BC6-9D51-11FE353150A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69559275-9763-4702-BD42-1FA353062614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6791AED2-1563-40C5-BC7D-FC581B3484D2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -212,6 +212,10 @@
     <rPh sb="19" eb="21">
       <t>キイロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,40 +377,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEAAAA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEAAAA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEAAAA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEAAAA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDA278C-17C5-4FBD-AF48-BF5FDF78CFB4}">
-  <dimension ref="B2:N83"/>
+  <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -741,12 +712,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="3">
-        <v>19</v>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>35</v>
@@ -755,155 +726,179 @@
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="K4" s="4" t="s">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="13"/>
+      <c r="J6">
+        <v>2</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
+      <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G7" s="13"/>
+      <c r="J7">
+        <v>4</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>36</v>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -911,22 +906,25 @@
       <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="1">
-        <v>7</v>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>35</v>
@@ -934,44 +932,43 @@
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="K11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>25</v>
       </c>
@@ -988,20 +985,29 @@
         <v>35</v>
       </c>
       <c r="G12" s="13"/>
+      <c r="J12">
+        <v>14</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>5</v>
       </c>
@@ -1017,20 +1023,30 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="G13" s="13"/>
+      <c r="J13">
+        <v>13</v>
+      </c>
       <c r="K13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -1046,14 +1062,29 @@
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -1069,14 +1100,17 @@
       <c r="F15" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
       <c r="K15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -1092,8 +1126,11 @@
       <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>5</v>
@@ -1115,8 +1152,11 @@
       <c r="F17" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>5</v>
@@ -1138,11 +1178,14 @@
       <c r="F18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>28</v>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -1161,8 +1204,11 @@
       <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>29</v>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>28</v>
@@ -1184,8 +1230,11 @@
       <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
       <c r="K20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>28</v>
@@ -1207,8 +1256,11 @@
       <c r="F21" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>28</v>
@@ -1230,8 +1282,11 @@
       <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>28</v>
@@ -1253,8 +1308,11 @@
       <c r="F23" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>28</v>
@@ -1276,8 +1334,11 @@
       <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>28</v>
@@ -1299,6 +1360,15 @@
       <c r="F25" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
@@ -1368,25 +1438,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1748,10 +1811,17 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:F83" xr:uid="{1AF30F01-8703-4DB0-9FB3-1100A9548AE0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F83">
-      <sortCondition ref="F2:F83"/>
+  <autoFilter ref="B2:F84" xr:uid="{1AF30F01-8703-4DB0-9FB3-1100A9548AE0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:F22">
+      <sortCondition ref="B2:B84"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
